--- a/BackTest/2020-01-19 BackTest PPT.xlsx
+++ b/BackTest/2020-01-19 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N333"/>
+  <dimension ref="A1:M333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>5115.1255</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>5340.1255</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>398.8</v>
       </c>
       <c r="J3" t="n">
         <v>398.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>398.8</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>5340.1255</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="J4" t="n">
-        <v>401</v>
-      </c>
-      <c r="K4" t="n">
         <v>398.8</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>5340.1255</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="J5" t="n">
-        <v>401</v>
-      </c>
-      <c r="K5" t="n">
         <v>398.8</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>5876.2863</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="J6" t="n">
         <v>401</v>
       </c>
-      <c r="K6" t="n">
-        <v>401</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>6548.6025</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>401.6</v>
       </c>
       <c r="J7" t="n">
-        <v>401.6</v>
-      </c>
-      <c r="K7" t="n">
         <v>401</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>6548.6025</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="J8" t="n">
-        <v>402</v>
-      </c>
-      <c r="K8" t="n">
         <v>401</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,26 +722,23 @@
         <v>12644.6025</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="J9" t="n">
-        <v>402</v>
-      </c>
-      <c r="K9" t="n">
         <v>401</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,26 +763,23 @@
         <v>12644.6025</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>403.2</v>
       </c>
       <c r="J10" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="K10" t="n">
         <v>401</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -836,26 +804,23 @@
         <v>10497.5703</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>403.2</v>
       </c>
       <c r="J11" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="K11" t="n">
         <v>401</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -880,24 +845,23 @@
         <v>10497.5703</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+        <v>402.8</v>
+      </c>
+      <c r="J12" t="n">
         <v>401</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -922,26 +886,23 @@
         <v>10723.5703</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>402.8</v>
       </c>
       <c r="J13" t="n">
-        <v>402.8</v>
-      </c>
-      <c r="K13" t="n">
         <v>401</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -966,26 +927,23 @@
         <v>11323.7503</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="J14" t="n">
-        <v>404</v>
-      </c>
-      <c r="K14" t="n">
         <v>401</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1010,26 +968,21 @@
         <v>11323.7503</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>405</v>
-      </c>
-      <c r="K15" t="n">
         <v>401</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1054,26 +1007,21 @@
         <v>11323.7503</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>405</v>
-      </c>
-      <c r="K16" t="n">
         <v>401</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1098,26 +1046,23 @@
         <v>11323.7503</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="J17" t="n">
-        <v>405</v>
-      </c>
-      <c r="K17" t="n">
         <v>401</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1142,26 +1087,23 @@
         <v>11323.7503</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="J18" t="n">
-        <v>405</v>
-      </c>
-      <c r="K18" t="n">
         <v>401</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1186,26 +1128,23 @@
         <v>11323.7503</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="J19" t="n">
-        <v>405</v>
-      </c>
-      <c r="K19" t="n">
         <v>401</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1230,26 +1169,23 @@
         <v>11323.7503</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="J20" t="n">
-        <v>405</v>
-      </c>
-      <c r="K20" t="n">
         <v>401</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1274,26 +1210,23 @@
         <v>11222.6107</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="J21" t="n">
-        <v>405</v>
-      </c>
-      <c r="K21" t="n">
         <v>401</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1318,26 +1251,21 @@
         <v>10722.6107</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>404</v>
-      </c>
-      <c r="K22" t="n">
         <v>401</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1362,26 +1290,23 @@
         <v>11022.6107</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>400.2</v>
       </c>
       <c r="J23" t="n">
-        <v>400.2</v>
-      </c>
-      <c r="K23" t="n">
         <v>401</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1406,24 +1331,23 @@
         <v>11022.6107</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="J24" t="n">
         <v>401</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1448,24 +1372,23 @@
         <v>11022.6107</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+        <v>402.5</v>
+      </c>
+      <c r="J25" t="n">
         <v>401</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1492,22 +1415,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>401</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1532,26 +1452,23 @@
         <v>11434.7343</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>403.5</v>
       </c>
       <c r="J27" t="n">
-        <v>403.5</v>
-      </c>
-      <c r="K27" t="n">
         <v>401</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1576,24 +1493,23 @@
         <v>11434.7343</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+        <v>403.5</v>
+      </c>
+      <c r="J28" t="n">
         <v>401</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1618,26 +1534,23 @@
         <v>11434.7343</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>403.5</v>
       </c>
       <c r="J29" t="n">
-        <v>403.5</v>
-      </c>
-      <c r="K29" t="n">
         <v>401</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1664,22 +1577,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>401</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1704,26 +1614,23 @@
         <v>15926.3839</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>403.9</v>
       </c>
       <c r="J31" t="n">
-        <v>403.9</v>
-      </c>
-      <c r="K31" t="n">
         <v>401</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1748,26 +1655,21 @@
         <v>15926.3839</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>405</v>
-      </c>
-      <c r="K32" t="n">
         <v>401</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1792,26 +1694,23 @@
         <v>15926.3839</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="J33" t="n">
-        <v>405</v>
-      </c>
-      <c r="K33" t="n">
         <v>401</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1836,24 +1735,23 @@
         <v>15926.3839</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+        <v>405</v>
+      </c>
+      <c r="J34" t="n">
         <v>401</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1878,24 +1776,23 @@
         <v>15926.3839</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+        <v>405</v>
+      </c>
+      <c r="J35" t="n">
         <v>401</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1922,22 +1819,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>401</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1964,22 +1858,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>401</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2006,22 +1897,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
         <v>401</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2048,22 +1936,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>401</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2090,22 +1975,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>401</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2132,22 +2014,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>401</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2174,22 +2053,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
         <v>401</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2216,22 +2092,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
         <v>401</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2258,22 +2131,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
         <v>401</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2300,22 +2170,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
         <v>401</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2342,22 +2209,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
         <v>401</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2384,22 +2248,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>401</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2424,24 +2285,23 @@
         <v>51092.67821616001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>401</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="L48" t="n">
+        <v>1.070311720698254</v>
+      </c>
       <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>1.00802407221665</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2466,24 +2326,15 @@
         <v>70143.63511616</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>401</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2508,24 +2359,15 @@
         <v>89864.09811616001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>401</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2550,24 +2392,15 @@
         <v>93529.48761616001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>401</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2592,24 +2425,15 @@
         <v>110220.47791616</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>401</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2636,22 +2460,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>401</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2676,24 +2491,15 @@
         <v>101155.56071616</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>401</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2718,24 +2524,15 @@
         <v>106930.91351616</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>401</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2760,26 +2557,15 @@
         <v>112101.39491616</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>401</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1.138142144638404</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1.00802407221665</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2806,16 +2592,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2840,18 +2623,15 @@
         <v>109862.34381616</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2876,18 +2656,15 @@
         <v>105278.25601616</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2912,18 +2689,15 @@
         <v>86577.98021616002</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2950,16 +2724,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2984,18 +2755,15 @@
         <v>109046.68631616</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3020,18 +2788,15 @@
         <v>133855.51061616</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3056,18 +2821,15 @@
         <v>133625.51171616</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3094,16 +2856,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3130,16 +2889,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3166,16 +2922,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3202,16 +2955,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3238,16 +2988,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3274,16 +3021,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3308,18 +3052,15 @@
         <v>140527.87141616</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3344,18 +3085,15 @@
         <v>136927.87141616</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3380,18 +3118,15 @@
         <v>132926.31351616</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3416,18 +3151,15 @@
         <v>125469.45181616</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3452,18 +3184,15 @@
         <v>106400.51751616</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3488,18 +3217,15 @@
         <v>106400.51751616</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3524,18 +3250,15 @@
         <v>106400.51751616</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3560,18 +3283,15 @@
         <v>106400.51751616</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3596,18 +3316,15 @@
         <v>106400.51751616</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3634,16 +3351,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3670,16 +3384,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3706,16 +3417,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3742,16 +3450,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3778,16 +3483,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3814,16 +3516,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3850,16 +3549,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3886,16 +3582,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3922,16 +3615,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3958,16 +3648,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3994,16 +3681,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4030,16 +3714,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4066,16 +3747,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4102,16 +3780,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4138,16 +3813,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4174,16 +3846,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4210,16 +3879,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4246,16 +3912,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4282,16 +3945,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4318,16 +3978,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4354,16 +4011,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4390,16 +4044,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4426,16 +4077,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4462,16 +4110,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4498,16 +4143,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4534,16 +4176,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4570,16 +4209,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4606,16 +4242,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4642,16 +4275,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4678,16 +4308,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4714,16 +4341,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4750,16 +4374,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4786,16 +4407,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4822,16 +4440,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4858,16 +4473,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4894,16 +4506,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4930,16 +4539,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4966,16 +4572,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5002,16 +4605,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5038,16 +4638,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5074,16 +4671,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5110,16 +4704,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5146,16 +4737,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5182,16 +4770,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5218,16 +4803,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5254,16 +4836,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5290,16 +4869,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5326,16 +4902,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5362,16 +4935,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5398,16 +4968,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5434,16 +5001,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5470,16 +5034,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5506,16 +5067,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5542,16 +5100,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5578,16 +5133,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5614,16 +5166,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5650,16 +5199,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5686,16 +5232,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5722,16 +5265,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5758,16 +5298,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5794,16 +5331,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5830,16 +5364,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5866,16 +5397,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5902,16 +5430,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5938,16 +5463,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5974,16 +5496,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6010,16 +5529,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6046,16 +5562,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6082,16 +5595,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6118,16 +5628,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6154,16 +5661,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6190,16 +5694,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6226,16 +5727,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6262,16 +5760,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6298,16 +5793,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6334,16 +5826,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6370,16 +5859,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6406,16 +5892,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6440,18 +5923,15 @@
         <v>121516.43511616</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6478,16 +5958,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6514,16 +5991,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6550,16 +6024,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6586,16 +6057,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6622,16 +6090,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6658,16 +6123,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6694,16 +6156,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6730,16 +6189,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6764,18 +6220,15 @@
         <v>121658.60181616</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6802,16 +6255,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6836,18 +6286,15 @@
         <v>126278.69331616</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6872,18 +6319,15 @@
         <v>123791.69831616</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6908,18 +6352,15 @@
         <v>123841.69831616</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6944,18 +6385,15 @@
         <v>123736.69831616</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6980,18 +6418,15 @@
         <v>123510.30161616</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7016,18 +6451,15 @@
         <v>123558.30161616</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7052,18 +6484,15 @@
         <v>123961.75261616</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7088,18 +6517,15 @@
         <v>120713.54401616</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7126,16 +6552,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7160,18 +6583,15 @@
         <v>118784.65261616</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7196,18 +6616,15 @@
         <v>118784.65261616</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7234,16 +6651,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7268,18 +6682,15 @@
         <v>118790.59961616</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7306,16 +6717,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7342,16 +6750,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7378,16 +6783,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7414,16 +6816,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7450,16 +6849,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7484,18 +6880,15 @@
         <v>118370.28661616</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7520,18 +6913,15 @@
         <v>118370.28661616</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7556,18 +6946,15 @@
         <v>118188.09151616</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7592,18 +6979,15 @@
         <v>114860.48421616</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7628,18 +7012,15 @@
         <v>118412.48421616</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7664,18 +7045,15 @@
         <v>118412.48421616</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7700,18 +7078,15 @@
         <v>117872.98411616</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7736,18 +7111,15 @@
         <v>109898.97571616</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7774,16 +7146,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7810,16 +7179,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7844,18 +7210,15 @@
         <v>111465.96151616</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7880,18 +7243,15 @@
         <v>111549.40761616</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7916,18 +7276,15 @@
         <v>111549.40761616</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7952,18 +7309,15 @@
         <v>112212.23861616</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7988,18 +7342,15 @@
         <v>108667.04861616</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8024,18 +7375,15 @@
         <v>108900.79831616</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8060,18 +7408,15 @@
         <v>106934.95661616</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8096,18 +7441,15 @@
         <v>107978.65661616</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8132,18 +7474,15 @@
         <v>107978.65661616</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8168,18 +7507,15 @@
         <v>107978.65661616</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8204,18 +7540,15 @@
         <v>108178.65661616</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8240,18 +7573,15 @@
         <v>107161.45401616</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8276,18 +7606,15 @@
         <v>108199.57421616</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8312,18 +7639,15 @@
         <v>107499.57421616</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8348,18 +7672,15 @@
         <v>106431.38551616</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8384,18 +7705,15 @@
         <v>109921.68471616</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8422,16 +7740,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8456,18 +7771,15 @@
         <v>110326.80911616</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8494,16 +7806,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8530,16 +7839,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8566,16 +7872,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8602,16 +7905,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8638,16 +7938,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8674,16 +7971,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8710,16 +8004,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8746,16 +8037,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8780,18 +8068,15 @@
         <v>109884.82511616</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8818,16 +8103,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8852,18 +8134,15 @@
         <v>110007.84181616</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8888,18 +8167,15 @@
         <v>110007.84181616</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8926,16 +8202,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8960,18 +8233,15 @@
         <v>110007.84181616</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8996,18 +8266,15 @@
         <v>106838.52521616</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9032,18 +8299,15 @@
         <v>106991.57111616</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9068,18 +8332,15 @@
         <v>106991.57111616</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9104,18 +8365,15 @@
         <v>106991.57111616</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9140,18 +8398,15 @@
         <v>106991.57111616</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9178,16 +8433,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9214,16 +8466,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9250,16 +8499,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9286,16 +8532,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9322,16 +8565,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9356,18 +8596,15 @@
         <v>105494.73151616</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9392,18 +8629,15 @@
         <v>105494.73151616</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9428,18 +8662,15 @@
         <v>106235.92541616</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9466,16 +8697,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9502,16 +8730,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9538,16 +8763,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9574,16 +8796,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9610,16 +8829,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9646,16 +8862,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9682,16 +8895,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9718,16 +8928,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9754,16 +8961,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9790,16 +8994,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9826,16 +9027,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9862,16 +9060,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9898,16 +9093,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9934,16 +9126,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9970,16 +9159,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10006,16 +9192,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10042,16 +9225,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10078,16 +9258,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10114,16 +9291,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10150,16 +9324,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10186,16 +9357,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10222,16 +9390,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10258,16 +9423,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10294,16 +9456,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10330,16 +9489,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10366,16 +9522,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10402,16 +9555,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10438,16 +9588,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10474,16 +9621,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10510,16 +9654,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10546,16 +9687,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10582,16 +9720,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10618,16 +9753,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10654,16 +9786,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10690,16 +9819,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10726,16 +9852,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10762,16 +9885,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10798,16 +9918,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10834,16 +9951,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10870,16 +9984,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10906,16 +10017,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10942,16 +10050,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10978,16 +10083,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11014,16 +10116,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11050,16 +10149,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11086,16 +10182,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11122,16 +10215,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11158,16 +10248,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11194,16 +10281,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11230,16 +10314,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11266,16 +10347,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11302,16 +10380,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11338,16 +10413,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11374,16 +10446,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11410,16 +10479,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11446,16 +10512,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11482,16 +10545,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11518,16 +10578,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11554,16 +10611,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11590,16 +10644,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11626,16 +10677,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11662,16 +10710,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11698,16 +10743,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11734,16 +10776,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11770,16 +10809,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11806,16 +10842,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11842,16 +10875,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11878,16 +10908,13 @@
       <c r="H309" t="n">
         <v>0</v>
       </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11914,16 +10941,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11950,16 +10974,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11986,16 +11007,13 @@
       <c r="H312" t="n">
         <v>0</v>
       </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12022,16 +11040,13 @@
       <c r="H313" t="n">
         <v>0</v>
       </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12058,16 +11073,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12094,16 +11106,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12130,16 +11139,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12166,16 +11172,13 @@
       <c r="H317" t="n">
         <v>0</v>
       </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12202,16 +11205,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12238,16 +11238,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12274,16 +11271,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12310,16 +11304,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12346,16 +11337,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12382,16 +11370,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12418,16 +11403,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12454,16 +11436,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12490,16 +11469,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12526,16 +11502,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12562,16 +11535,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12598,16 +11568,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12634,16 +11601,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12670,16 +11634,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12706,16 +11667,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12742,18 +11700,15 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest PPT.xlsx
+++ b/BackTest/2020-01-19 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>5115.1255</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5340.1255</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>398.8</v>
@@ -521,7 +521,7 @@
         <v>5340.1255</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>401</v>
@@ -562,7 +562,7 @@
         <v>5340.1255</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>401</v>
@@ -603,7 +603,7 @@
         <v>5876.2863</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>401</v>
@@ -640,7 +640,7 @@
         <v>6548.6025</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>401.6</v>
@@ -681,7 +681,7 @@
         <v>6548.6025</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>402</v>
@@ -722,7 +722,7 @@
         <v>12644.6025</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>402</v>
@@ -763,7 +763,7 @@
         <v>12644.6025</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>403.2</v>
@@ -804,7 +804,7 @@
         <v>10497.5703</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>403.2</v>
@@ -845,7 +845,7 @@
         <v>10497.5703</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>402.8</v>
@@ -886,7 +886,7 @@
         <v>10723.5703</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>402.8</v>
@@ -927,7 +927,7 @@
         <v>11323.7503</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>404</v>
@@ -968,9 +968,11 @@
         <v>11323.7503</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>405</v>
+      </c>
       <c r="J15" t="n">
         <v>401</v>
       </c>
@@ -1007,9 +1009,11 @@
         <v>11323.7503</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>405</v>
+      </c>
       <c r="J16" t="n">
         <v>401</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>11323.7503</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>405</v>
@@ -1087,7 +1091,7 @@
         <v>11323.7503</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>405</v>
@@ -1128,7 +1132,7 @@
         <v>11323.7503</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>405</v>
@@ -1169,7 +1173,7 @@
         <v>11323.7503</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>405</v>
@@ -1210,7 +1214,7 @@
         <v>11222.6107</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>405</v>
@@ -1251,9 +1255,11 @@
         <v>10722.6107</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>404</v>
+      </c>
       <c r="J22" t="n">
         <v>401</v>
       </c>
@@ -1290,7 +1296,7 @@
         <v>11022.6107</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>400.2</v>
@@ -1331,7 +1337,7 @@
         <v>11022.6107</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>402.5</v>
@@ -1372,7 +1378,7 @@
         <v>11022.6107</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>402.5</v>
@@ -1413,9 +1419,11 @@
         <v>11434.7343</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>402.5</v>
+      </c>
       <c r="J26" t="n">
         <v>401</v>
       </c>
@@ -1452,7 +1460,7 @@
         <v>11434.7343</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>403.5</v>
@@ -1493,7 +1501,7 @@
         <v>11434.7343</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>403.5</v>
@@ -1534,7 +1542,7 @@
         <v>11434.7343</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>403.5</v>
@@ -1575,9 +1583,11 @@
         <v>12062.7712</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>403.5</v>
+      </c>
       <c r="J30" t="n">
         <v>401</v>
       </c>
@@ -1614,7 +1624,7 @@
         <v>15926.3839</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>403.9</v>
@@ -1655,9 +1665,11 @@
         <v>15926.3839</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>405</v>
+      </c>
       <c r="J32" t="n">
         <v>401</v>
       </c>
@@ -1694,7 +1706,7 @@
         <v>15926.3839</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>405</v>
@@ -1735,7 +1747,7 @@
         <v>15926.3839</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>405</v>
@@ -1776,7 +1788,7 @@
         <v>15926.3839</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>405</v>
@@ -1817,9 +1829,11 @@
         <v>15926.3839</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>405</v>
+      </c>
       <c r="J36" t="n">
         <v>401</v>
       </c>
@@ -1856,9 +1870,11 @@
         <v>15926.3839</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>405</v>
+      </c>
       <c r="J37" t="n">
         <v>401</v>
       </c>
@@ -1895,9 +1911,11 @@
         <v>17311.5376</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>405</v>
+      </c>
       <c r="J38" t="n">
         <v>401</v>
       </c>
@@ -1934,9 +1952,11 @@
         <v>18502.7375</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>405.2</v>
+      </c>
       <c r="J39" t="n">
         <v>401</v>
       </c>
@@ -1973,9 +1993,11 @@
         <v>25331.36</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>408</v>
+      </c>
       <c r="J40" t="n">
         <v>401</v>
       </c>
@@ -2012,9 +2034,11 @@
         <v>27450.8952</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>410</v>
+      </c>
       <c r="J41" t="n">
         <v>401</v>
       </c>
@@ -2051,9 +2075,11 @@
         <v>27650.0294</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>410.1</v>
+      </c>
       <c r="J42" t="n">
         <v>401</v>
       </c>
@@ -2285,7 +2311,7 @@
         <v>51092.67821616001</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
@@ -2293,15 +2319,13 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.070311720698254</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.00802407221665</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2326,11 +2350,17 @@
         <v>70143.63511616</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>401</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2359,11 +2389,17 @@
         <v>89864.09811616001</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>401</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2392,11 +2428,17 @@
         <v>93529.48761616001</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>401</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2425,11 +2467,17 @@
         <v>110220.47791616</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>401</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2461,8 +2509,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>401</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2491,11 +2545,17 @@
         <v>101155.56071616</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>401</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2524,11 +2584,17 @@
         <v>106930.91351616</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>401</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2557,11 +2623,17 @@
         <v>112101.39491616</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>401</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2593,8 +2665,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>401</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2623,11 +2701,17 @@
         <v>109862.34381616</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>401</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2656,11 +2740,17 @@
         <v>105278.25601616</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>401</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2689,11 +2779,17 @@
         <v>86577.98021616002</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>401</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2725,8 +2821,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>401</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2755,11 +2857,17 @@
         <v>109046.68631616</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>401</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +2896,17 @@
         <v>133855.51061616</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>401</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2821,11 +2935,17 @@
         <v>133625.51171616</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>401</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2857,8 +2977,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>401</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2890,8 +3016,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>401</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2923,8 +3055,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>401</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2956,8 +3094,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>401</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2989,8 +3133,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>401</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3022,8 +3172,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>401</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3052,15 +3208,23 @@
         <v>140527.87141616</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>401</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>1.108715710723192</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.00802407221665</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3085,7 +3249,7 @@
         <v>136927.87141616</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3118,7 +3282,7 @@
         <v>132926.31351616</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3151,7 +3315,7 @@
         <v>125469.45181616</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3184,7 +3348,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3217,7 +3381,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3250,7 +3414,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3283,7 +3447,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3316,7 +3480,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3349,7 +3513,7 @@
         <v>98267.58451616</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3382,7 +3546,7 @@
         <v>97819.32341616</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3415,7 +3579,7 @@
         <v>97819.32341616</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3448,7 +3612,7 @@
         <v>102100.40241616</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3514,7 +3678,7 @@
         <v>108686.09761616</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3580,7 +3744,7 @@
         <v>115739.60221616</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3613,7 +3777,7 @@
         <v>115739.60221616</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3679,7 +3843,7 @@
         <v>114477.14591616</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3712,7 +3876,7 @@
         <v>114523.57011616</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3745,7 +3909,7 @@
         <v>114523.57011616</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3778,7 +3942,7 @@
         <v>114523.57011616</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3811,7 +3975,7 @@
         <v>111863.74101616</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3844,7 +4008,7 @@
         <v>112313.74101616</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3877,7 +4041,7 @@
         <v>111387.09371616</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3910,7 +4074,7 @@
         <v>109999.43331616</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3943,7 +4107,7 @@
         <v>109235.19381616</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3976,7 +4140,7 @@
         <v>105834.98881616</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4009,7 +4173,7 @@
         <v>106234.98881616</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4042,7 +4206,7 @@
         <v>105428.97221616</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4075,7 +4239,7 @@
         <v>103128.16381616</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4108,7 +4272,7 @@
         <v>98145.94381615998</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4141,7 +4305,7 @@
         <v>96796.89571615998</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4174,7 +4338,7 @@
         <v>98949.84291615998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4207,7 +4371,7 @@
         <v>99227.84291615998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4240,7 +4404,7 @@
         <v>99327.84291615998</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4273,7 +4437,7 @@
         <v>98999.00291615998</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4306,7 +4470,7 @@
         <v>99104.00291615998</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4339,7 +4503,7 @@
         <v>98966.81961615998</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4372,7 +4536,7 @@
         <v>97897.60491615998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4405,7 +4569,7 @@
         <v>98338.63441615998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4438,7 +4602,7 @@
         <v>98339.93441615999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4471,7 +4635,7 @@
         <v>98129.83651615999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4504,7 +4668,7 @@
         <v>97884.83651615999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4570,7 +4734,7 @@
         <v>99268.42581616</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4603,7 +4767,7 @@
         <v>99268.42581616</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4636,7 +4800,7 @@
         <v>97126.86631616</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4669,7 +4833,7 @@
         <v>103023.04971616</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4702,7 +4866,7 @@
         <v>102377.28721616</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4735,7 +4899,7 @@
         <v>103693.50741616</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4834,7 +4998,7 @@
         <v>99795.33001615999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4966,7 +5130,7 @@
         <v>97936.51351615999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5131,7 +5295,7 @@
         <v>97916.85511615999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5164,7 +5328,7 @@
         <v>97915.15511615999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5197,7 +5361,7 @@
         <v>97915.15511615999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5230,7 +5394,7 @@
         <v>98084.15511615999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5923,7 +6087,7 @@
         <v>121516.43511616</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6220,7 +6384,7 @@
         <v>121658.60181616</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6286,7 +6450,7 @@
         <v>126278.69331616</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6319,7 +6483,7 @@
         <v>123791.69831616</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6352,7 +6516,7 @@
         <v>123841.69831616</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6385,7 +6549,7 @@
         <v>123736.69831616</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6418,7 +6582,7 @@
         <v>123510.30161616</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6451,7 +6615,7 @@
         <v>123558.30161616</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6484,7 +6648,7 @@
         <v>123961.75261616</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6517,7 +6681,7 @@
         <v>120713.54401616</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6583,7 +6747,7 @@
         <v>118784.65261616</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6616,7 +6780,7 @@
         <v>118784.65261616</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6682,7 +6846,7 @@
         <v>118790.59961616</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6880,7 +7044,7 @@
         <v>118370.28661616</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6913,7 +7077,7 @@
         <v>118370.28661616</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6946,7 +7110,7 @@
         <v>118188.09151616</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6979,7 +7143,7 @@
         <v>114860.48421616</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7012,7 +7176,7 @@
         <v>118412.48421616</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7045,7 +7209,7 @@
         <v>118412.48421616</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7078,7 +7242,7 @@
         <v>117872.98411616</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7111,7 +7275,7 @@
         <v>109898.97571616</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7210,7 +7374,7 @@
         <v>111465.96151616</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7243,7 +7407,7 @@
         <v>111549.40761616</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7276,7 +7440,7 @@
         <v>111549.40761616</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7309,7 +7473,7 @@
         <v>112212.23861616</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7342,7 +7506,7 @@
         <v>108667.04861616</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7375,7 +7539,7 @@
         <v>108900.79831616</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7408,7 +7572,7 @@
         <v>106934.95661616</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7441,7 +7605,7 @@
         <v>107978.65661616</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7474,7 +7638,7 @@
         <v>107978.65661616</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7507,7 +7671,7 @@
         <v>107978.65661616</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7540,7 +7704,7 @@
         <v>108178.65661616</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7573,7 +7737,7 @@
         <v>107161.45401616</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7606,7 +7770,7 @@
         <v>108199.57421616</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7639,7 +7803,7 @@
         <v>107499.57421616</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7672,7 +7836,7 @@
         <v>106431.38551616</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7705,7 +7869,7 @@
         <v>109921.68471616</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7771,7 +7935,7 @@
         <v>110326.80911616</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8068,7 +8232,7 @@
         <v>109884.82511616</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8134,7 +8298,7 @@
         <v>110007.84181616</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8167,7 +8331,7 @@
         <v>110007.84181616</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8233,7 +8397,7 @@
         <v>110007.84181616</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8266,7 +8430,7 @@
         <v>106838.52521616</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8299,7 +8463,7 @@
         <v>106991.57111616</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8332,7 +8496,7 @@
         <v>106991.57111616</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8365,7 +8529,7 @@
         <v>106991.57111616</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8398,7 +8562,7 @@
         <v>106991.57111616</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8596,7 +8760,7 @@
         <v>105494.73151616</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8629,7 +8793,7 @@
         <v>105494.73151616</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8662,7 +8826,7 @@
         <v>106235.92541616</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -11709,6 +11873,6 @@
       <c r="M333" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest PPT.xlsx
+++ b/BackTest/2020-01-19 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2034,11 +2034,9 @@
         <v>27450.8952</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>401</v>
       </c>
@@ -2075,11 +2073,9 @@
         <v>27650.0294</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>410.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>401</v>
       </c>
@@ -2350,7 +2346,7 @@
         <v>70143.63511616</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
@@ -2358,13 +2354,15 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>1.092256857855362</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.00802407221665</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2389,17 +2387,11 @@
         <v>89864.09811616001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>401</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2428,17 +2420,11 @@
         <v>93529.48761616001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>401</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2467,17 +2453,11 @@
         <v>110220.47791616</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>401</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2509,14 +2489,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>401</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2548,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>401</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2587,14 +2555,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>401</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2626,14 +2588,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>401</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2665,14 +2621,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>401</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2704,14 +2654,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>401</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2743,14 +2687,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>401</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2782,14 +2720,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>401</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2821,14 +2753,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>401</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2860,14 +2786,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>401</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2899,14 +2819,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>401</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2938,14 +2852,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>401</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2977,14 +2885,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>401</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3016,14 +2918,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>401</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3055,14 +2951,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>401</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3094,14 +2984,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>401</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3133,14 +3017,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>401</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3172,14 +3050,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>401</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3208,23 +3080,15 @@
         <v>140527.87141616</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>401</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
-        <v>1.108715710723192</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.00802407221665</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3348,7 +3212,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3381,7 +3245,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3414,7 +3278,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3447,7 +3311,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3480,7 +3344,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3645,7 +3509,7 @@
         <v>102100.40241616</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3711,7 +3575,7 @@
         <v>114079.16731616</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3744,7 +3608,7 @@
         <v>115739.60221616</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3777,7 +3641,7 @@
         <v>115739.60221616</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3843,7 +3707,7 @@
         <v>114477.14591616</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3876,7 +3740,7 @@
         <v>114523.57011616</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3909,7 +3773,7 @@
         <v>114523.57011616</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3942,7 +3806,7 @@
         <v>114523.57011616</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3975,7 +3839,7 @@
         <v>111863.74101616</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4008,7 +3872,7 @@
         <v>112313.74101616</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4041,7 +3905,7 @@
         <v>111387.09371616</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4074,7 +3938,7 @@
         <v>109999.43331616</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4107,7 +3971,7 @@
         <v>109235.19381616</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4140,7 +4004,7 @@
         <v>105834.98881616</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4173,7 +4037,7 @@
         <v>106234.98881616</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4206,7 +4070,7 @@
         <v>105428.97221616</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4239,7 +4103,7 @@
         <v>103128.16381616</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4272,7 +4136,7 @@
         <v>98145.94381615998</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4305,7 +4169,7 @@
         <v>96796.89571615998</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4338,7 +4202,7 @@
         <v>98949.84291615998</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4371,7 +4235,7 @@
         <v>99227.84291615998</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4404,7 +4268,7 @@
         <v>99327.84291615998</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4437,7 +4301,7 @@
         <v>98999.00291615998</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4470,7 +4334,7 @@
         <v>99104.00291615998</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4503,7 +4367,7 @@
         <v>98966.81961615998</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4536,7 +4400,7 @@
         <v>97897.60491615998</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4569,7 +4433,7 @@
         <v>98338.63441615998</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4602,7 +4466,7 @@
         <v>98339.93441615999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4635,7 +4499,7 @@
         <v>98129.83651615999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4668,7 +4532,7 @@
         <v>97884.83651615999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4734,7 +4598,7 @@
         <v>99268.42581616</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4767,7 +4631,7 @@
         <v>99268.42581616</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4800,7 +4664,7 @@
         <v>97126.86631616</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4833,7 +4697,7 @@
         <v>103023.04971616</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4866,7 +4730,7 @@
         <v>102377.28721616</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4899,7 +4763,7 @@
         <v>103693.50741616</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4998,7 +4862,7 @@
         <v>99795.33001615999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5130,7 +4994,7 @@
         <v>97936.51351615999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5295,7 +5159,7 @@
         <v>97916.85511615999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5328,7 +5192,7 @@
         <v>97915.15511615999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5361,7 +5225,7 @@
         <v>97915.15511615999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5394,7 +5258,7 @@
         <v>98084.15511615999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -11873,6 +11737,6 @@
       <c r="M333" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest PPT.xlsx
+++ b/BackTest/2020-01-19 BackTest PPT.xlsx
@@ -1501,11 +1501,9 @@
         <v>11434.7343</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>403.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>401</v>
       </c>
@@ -1583,11 +1581,9 @@
         <v>12062.7712</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>403.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>401</v>
       </c>
@@ -1624,11 +1620,9 @@
         <v>15926.3839</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>403.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>401</v>
       </c>
@@ -1665,11 +1659,9 @@
         <v>15926.3839</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>401</v>
       </c>
@@ -1706,11 +1698,9 @@
         <v>15926.3839</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>401</v>
       </c>
@@ -1747,11 +1737,9 @@
         <v>15926.3839</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>401</v>
       </c>
@@ -1788,11 +1776,9 @@
         <v>15926.3839</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>401</v>
       </c>
@@ -1829,11 +1815,9 @@
         <v>15926.3839</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>401</v>
       </c>
@@ -1870,11 +1854,9 @@
         <v>15926.3839</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>401</v>
       </c>
@@ -1911,11 +1893,9 @@
         <v>17311.5376</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>401</v>
       </c>
@@ -1952,11 +1932,9 @@
         <v>18502.7375</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>405.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>401</v>
       </c>
@@ -1993,11 +1971,9 @@
         <v>25331.36</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>408</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>401</v>
       </c>
@@ -2346,7 +2322,7 @@
         <v>70143.63511616</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
@@ -2354,15 +2330,13 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.092256857855362</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.00802407221665</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2387,11 +2361,17 @@
         <v>89864.09811616001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>401</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2420,11 +2400,17 @@
         <v>93529.48761616001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>401</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2453,11 +2439,17 @@
         <v>110220.47791616</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>401</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2489,8 +2481,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>401</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2522,8 +2520,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>401</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2555,8 +2559,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>401</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2585,15 +2595,23 @@
         <v>112101.39491616</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>401</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>1.138142144638404</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.00802407221665</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2618,7 +2636,7 @@
         <v>109921.90691616</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2651,7 +2669,7 @@
         <v>109862.34381616</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2684,7 +2702,7 @@
         <v>105278.25601616</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2717,7 +2735,7 @@
         <v>86577.98021616002</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2750,7 +2768,7 @@
         <v>99543.99461616002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2816,7 +2834,7 @@
         <v>133855.51061616</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2849,7 +2867,7 @@
         <v>133625.51171616</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2882,7 +2900,7 @@
         <v>130613.66581616</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2915,7 +2933,7 @@
         <v>130838.87751616</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3080,7 +3098,7 @@
         <v>140527.87141616</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3113,7 +3131,7 @@
         <v>136927.87141616</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3146,7 +3164,7 @@
         <v>132926.31351616</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3179,7 +3197,7 @@
         <v>125469.45181616</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3245,7 +3263,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3311,7 +3329,7 @@
         <v>106400.51751616</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3377,7 +3395,7 @@
         <v>98267.58451616</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3410,7 +3428,7 @@
         <v>97819.32341616</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3443,7 +3461,7 @@
         <v>97819.32341616</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3476,7 +3494,7 @@
         <v>102100.40241616</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3509,7 +3527,7 @@
         <v>102100.40241616</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3542,7 +3560,7 @@
         <v>108686.09761616</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3575,7 +3593,7 @@
         <v>114079.16731616</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>

--- a/BackTest/2020-01-19 BackTest PPT.xlsx
+++ b/BackTest/2020-01-19 BackTest PPT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M333"/>
+  <dimension ref="A1:L333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1374.9281</v>
       </c>
       <c r="G2" t="n">
-        <v>5115.1255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>225</v>
       </c>
       <c r="G3" t="n">
-        <v>5340.1255</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>398.8</v>
       </c>
       <c r="I3" t="n">
         <v>398.8</v>
       </c>
-      <c r="J3" t="n">
-        <v>398.8</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>1252.3039</v>
       </c>
       <c r="G4" t="n">
-        <v>5340.1255</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="I4" t="n">
-        <v>401</v>
-      </c>
-      <c r="J4" t="n">
         <v>398.8</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>224.5786</v>
       </c>
       <c r="G5" t="n">
-        <v>5340.1255</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="I5" t="n">
-        <v>401</v>
-      </c>
-      <c r="J5" t="n">
         <v>398.8</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>536.1608</v>
       </c>
       <c r="G6" t="n">
-        <v>5876.2863</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="I6" t="n">
         <v>401</v>
       </c>
-      <c r="J6" t="n">
-        <v>401</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>672.3162</v>
       </c>
       <c r="G7" t="n">
-        <v>6548.6025</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>401.6</v>
       </c>
       <c r="I7" t="n">
-        <v>401.6</v>
-      </c>
-      <c r="J7" t="n">
         <v>401</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,23 @@
         <v>281.227</v>
       </c>
       <c r="G8" t="n">
-        <v>6548.6025</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="I8" t="n">
-        <v>402</v>
-      </c>
-      <c r="J8" t="n">
         <v>401</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +693,23 @@
         <v>6096</v>
       </c>
       <c r="G9" t="n">
-        <v>12644.6025</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="I9" t="n">
-        <v>402</v>
-      </c>
-      <c r="J9" t="n">
         <v>401</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,26 +731,23 @@
         <v>300</v>
       </c>
       <c r="G10" t="n">
-        <v>12644.6025</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>403.2</v>
       </c>
       <c r="I10" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="J10" t="n">
         <v>401</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,26 +769,23 @@
         <v>2147.0322</v>
       </c>
       <c r="G11" t="n">
-        <v>10497.5703</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>403.2</v>
       </c>
       <c r="I11" t="n">
-        <v>403.2</v>
-      </c>
-      <c r="J11" t="n">
         <v>401</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,26 +807,23 @@
         <v>257</v>
       </c>
       <c r="G12" t="n">
-        <v>10497.5703</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>402.8</v>
       </c>
       <c r="I12" t="n">
-        <v>402.8</v>
-      </c>
-      <c r="J12" t="n">
         <v>401</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -883,26 +845,23 @@
         <v>226</v>
       </c>
       <c r="G13" t="n">
-        <v>10723.5703</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>402.8</v>
       </c>
       <c r="I13" t="n">
-        <v>402.8</v>
-      </c>
-      <c r="J13" t="n">
         <v>401</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -924,26 +883,23 @@
         <v>600.1799999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>11323.7503</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>404</v>
       </c>
       <c r="I14" t="n">
-        <v>404</v>
-      </c>
-      <c r="J14" t="n">
         <v>401</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -965,26 +921,23 @@
         <v>1.2346</v>
       </c>
       <c r="G15" t="n">
-        <v>11323.7503</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="I15" t="n">
-        <v>405</v>
-      </c>
-      <c r="J15" t="n">
         <v>401</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1006,26 +959,23 @@
         <v>171.0542</v>
       </c>
       <c r="G16" t="n">
-        <v>11323.7503</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="I16" t="n">
-        <v>405</v>
-      </c>
-      <c r="J16" t="n">
         <v>401</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1047,26 +997,23 @@
         <v>2.4692</v>
       </c>
       <c r="G17" t="n">
-        <v>11323.7503</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="I17" t="n">
-        <v>405</v>
-      </c>
-      <c r="J17" t="n">
         <v>401</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1088,26 +1035,23 @@
         <v>1.2346</v>
       </c>
       <c r="G18" t="n">
-        <v>11323.7503</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="I18" t="n">
-        <v>405</v>
-      </c>
-      <c r="J18" t="n">
         <v>401</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1129,26 +1073,23 @@
         <v>462.5058</v>
       </c>
       <c r="G19" t="n">
-        <v>11323.7503</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="I19" t="n">
-        <v>405</v>
-      </c>
-      <c r="J19" t="n">
         <v>401</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1170,26 +1111,23 @@
         <v>602.1638</v>
       </c>
       <c r="G20" t="n">
-        <v>11323.7503</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="I20" t="n">
-        <v>405</v>
-      </c>
-      <c r="J20" t="n">
         <v>401</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1211,26 +1149,23 @@
         <v>101.1396</v>
       </c>
       <c r="G21" t="n">
-        <v>11222.6107</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>405</v>
       </c>
       <c r="I21" t="n">
-        <v>405</v>
-      </c>
-      <c r="J21" t="n">
         <v>401</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1252,26 +1187,23 @@
         <v>500</v>
       </c>
       <c r="G22" t="n">
-        <v>10722.6107</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>404</v>
       </c>
       <c r="I22" t="n">
-        <v>404</v>
-      </c>
-      <c r="J22" t="n">
         <v>401</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1293,26 +1225,23 @@
         <v>300</v>
       </c>
       <c r="G23" t="n">
-        <v>11022.6107</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>400.2</v>
       </c>
       <c r="I23" t="n">
-        <v>400.2</v>
-      </c>
-      <c r="J23" t="n">
         <v>401</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1334,26 +1263,23 @@
         <v>111.0333</v>
       </c>
       <c r="G24" t="n">
-        <v>11022.6107</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>402.5</v>
       </c>
       <c r="I24" t="n">
-        <v>402.5</v>
-      </c>
-      <c r="J24" t="n">
         <v>401</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1375,26 +1301,23 @@
         <v>88.8999</v>
       </c>
       <c r="G25" t="n">
-        <v>11022.6107</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>402.5</v>
       </c>
       <c r="I25" t="n">
-        <v>402.5</v>
-      </c>
-      <c r="J25" t="n">
         <v>401</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1416,26 +1339,23 @@
         <v>412.1236</v>
       </c>
       <c r="G26" t="n">
-        <v>11434.7343</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>402.5</v>
       </c>
       <c r="I26" t="n">
-        <v>402.5</v>
-      </c>
-      <c r="J26" t="n">
         <v>401</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1457,26 +1377,23 @@
         <v>600.1799999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>11434.7343</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>403.5</v>
       </c>
       <c r="I27" t="n">
-        <v>403.5</v>
-      </c>
-      <c r="J27" t="n">
         <v>401</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1498,24 +1415,23 @@
         <v>248.3403</v>
       </c>
       <c r="G28" t="n">
-        <v>11434.7343</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
+        <v>403.5</v>
+      </c>
+      <c r="I28" t="n">
         <v>401</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1537,26 +1453,23 @@
         <v>204.0612</v>
       </c>
       <c r="G29" t="n">
-        <v>11434.7343</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>403.5</v>
       </c>
       <c r="I29" t="n">
-        <v>403.5</v>
-      </c>
-      <c r="J29" t="n">
         <v>401</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1578,24 +1491,23 @@
         <v>628.0368999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>12062.7712</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+        <v>403.5</v>
+      </c>
+      <c r="I30" t="n">
         <v>401</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1617,24 +1529,23 @@
         <v>3863.6127</v>
       </c>
       <c r="G31" t="n">
-        <v>15926.3839</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
+        <v>403.9</v>
+      </c>
+      <c r="I31" t="n">
         <v>401</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1656,24 +1567,23 @@
         <v>150</v>
       </c>
       <c r="G32" t="n">
-        <v>15926.3839</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+        <v>405</v>
+      </c>
+      <c r="I32" t="n">
         <v>401</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1695,24 +1605,23 @@
         <v>2618.8305</v>
       </c>
       <c r="G33" t="n">
-        <v>15926.3839</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+        <v>405</v>
+      </c>
+      <c r="I33" t="n">
         <v>401</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1734,24 +1643,23 @@
         <v>400</v>
       </c>
       <c r="G34" t="n">
-        <v>15926.3839</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
+        <v>405</v>
+      </c>
+      <c r="I34" t="n">
         <v>401</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1773,24 +1681,23 @@
         <v>50</v>
       </c>
       <c r="G35" t="n">
-        <v>15926.3839</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
+        <v>405</v>
+      </c>
+      <c r="I35" t="n">
         <v>401</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1812,24 +1719,23 @@
         <v>700</v>
       </c>
       <c r="G36" t="n">
-        <v>15926.3839</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
+        <v>405</v>
+      </c>
+      <c r="I36" t="n">
         <v>401</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1851,24 +1757,23 @@
         <v>199.8999</v>
       </c>
       <c r="G37" t="n">
-        <v>15926.3839</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
+        <v>405</v>
+      </c>
+      <c r="I37" t="n">
         <v>401</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1890,24 +1795,21 @@
         <v>1385.1537</v>
       </c>
       <c r="G38" t="n">
-        <v>17311.5376</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
         <v>401</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1929,24 +1831,21 @@
         <v>1191.1999</v>
       </c>
       <c r="G39" t="n">
-        <v>18502.7375</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
         <v>401</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1968,24 +1867,23 @@
         <v>6828.6225</v>
       </c>
       <c r="G40" t="n">
-        <v>25331.36</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
+        <v>408</v>
+      </c>
+      <c r="I40" t="n">
         <v>401</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2007,24 +1905,21 @@
         <v>2119.5352</v>
       </c>
       <c r="G41" t="n">
-        <v>27450.8952</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
         <v>401</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2046,24 +1941,21 @@
         <v>199.1342</v>
       </c>
       <c r="G42" t="n">
-        <v>27650.0294</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
         <v>401</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2085,24 +1977,21 @@
         <v>314</v>
       </c>
       <c r="G43" t="n">
-        <v>27650.0294</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
         <v>401</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2124,24 +2013,21 @@
         <v>878.2432</v>
       </c>
       <c r="G44" t="n">
-        <v>28528.2726</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
         <v>401</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2163,24 +2049,21 @@
         <v>6980.0189</v>
       </c>
       <c r="G45" t="n">
-        <v>35508.2915</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
         <v>401</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2202,24 +2085,21 @@
         <v>4983.4699</v>
       </c>
       <c r="G46" t="n">
-        <v>40491.7614</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
         <v>401</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2241,24 +2121,21 @@
         <v>3329.52281616</v>
       </c>
       <c r="G47" t="n">
-        <v>43821.28421616001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
         <v>401</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2280,24 +2157,21 @@
         <v>7271.394</v>
       </c>
       <c r="G48" t="n">
-        <v>51092.67821616001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
         <v>401</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2319,24 +2193,21 @@
         <v>19050.9569</v>
       </c>
       <c r="G49" t="n">
-        <v>70143.63511616</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
         <v>401</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2358,24 +2229,21 @@
         <v>19720.463</v>
       </c>
       <c r="G50" t="n">
-        <v>89864.09811616001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
         <v>401</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2397,24 +2265,21 @@
         <v>3665.3895</v>
       </c>
       <c r="G51" t="n">
-        <v>93529.48761616001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
         <v>401</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2436,24 +2301,21 @@
         <v>16690.9903</v>
       </c>
       <c r="G52" t="n">
-        <v>110220.47791616</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
         <v>401</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2475,24 +2337,21 @@
         <v>9064.9172</v>
       </c>
       <c r="G53" t="n">
-        <v>101155.56071616</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
         <v>401</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2514,24 +2373,21 @@
         <v>1965.8417</v>
       </c>
       <c r="G54" t="n">
-        <v>101155.56071616</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
         <v>401</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2553,24 +2409,21 @@
         <v>5775.3528</v>
       </c>
       <c r="G55" t="n">
-        <v>106930.91351616</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
         <v>401</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2592,59 +2445,59 @@
         <v>5170.4814</v>
       </c>
       <c r="G56" t="n">
-        <v>112101.39491616</v>
-      </c>
-      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>401</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>458</v>
+      </c>
+      <c r="C57" t="n">
+        <v>458.1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>458.1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>458</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2179.488</v>
+      </c>
+      <c r="G57" t="n">
         <v>2</v>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
         <v>401</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1.138142144638404</v>
-      </c>
-      <c r="M56" t="n">
+      <c r="K57" t="n">
+        <v>1.137394014962594</v>
+      </c>
+      <c r="L57" t="n">
         <v>1.00802407221665</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>458</v>
-      </c>
-      <c r="C57" t="n">
-        <v>458.1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>458.1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>458</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2179.488</v>
-      </c>
-      <c r="G57" t="n">
-        <v>109921.90691616</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2666,18 +2519,15 @@
         <v>59.5631</v>
       </c>
       <c r="G58" t="n">
-        <v>109862.34381616</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2699,18 +2549,15 @@
         <v>4584.0878</v>
       </c>
       <c r="G59" t="n">
-        <v>105278.25601616</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2732,18 +2579,15 @@
         <v>18700.2758</v>
       </c>
       <c r="G60" t="n">
-        <v>86577.98021616002</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2765,18 +2609,15 @@
         <v>12966.0144</v>
       </c>
       <c r="G61" t="n">
-        <v>99543.99461616002</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2798,18 +2639,15 @@
         <v>9502.691699999999</v>
       </c>
       <c r="G62" t="n">
-        <v>109046.68631616</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2831,18 +2669,15 @@
         <v>24808.8243</v>
       </c>
       <c r="G63" t="n">
-        <v>133855.51061616</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2864,18 +2699,15 @@
         <v>229.9989</v>
       </c>
       <c r="G64" t="n">
-        <v>133625.51171616</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2897,18 +2729,15 @@
         <v>3011.8459</v>
       </c>
       <c r="G65" t="n">
-        <v>130613.66581616</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2930,18 +2759,15 @@
         <v>225.2117</v>
       </c>
       <c r="G66" t="n">
-        <v>130838.87751616</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2963,18 +2789,15 @@
         <v>6445.2895</v>
       </c>
       <c r="G67" t="n">
-        <v>137284.16701616</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2996,18 +2819,15 @@
         <v>1530.1742</v>
       </c>
       <c r="G68" t="n">
-        <v>135753.99281616</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3029,18 +2849,15 @@
         <v>624.2537</v>
       </c>
       <c r="G69" t="n">
-        <v>135753.99281616</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3062,18 +2879,15 @@
         <v>412.3</v>
       </c>
       <c r="G70" t="n">
-        <v>136166.29281616</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3095,18 +2909,15 @@
         <v>4361.5786</v>
       </c>
       <c r="G71" t="n">
-        <v>140527.87141616</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3128,18 +2939,15 @@
         <v>3600</v>
       </c>
       <c r="G72" t="n">
-        <v>136927.87141616</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3161,18 +2969,15 @@
         <v>4001.5579</v>
       </c>
       <c r="G73" t="n">
-        <v>132926.31351616</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3194,18 +2999,15 @@
         <v>7456.8617</v>
       </c>
       <c r="G74" t="n">
-        <v>125469.45181616</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3227,18 +3029,15 @@
         <v>19068.9343</v>
       </c>
       <c r="G75" t="n">
-        <v>106400.51751616</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3260,18 +3059,15 @@
         <v>791.4247</v>
       </c>
       <c r="G76" t="n">
-        <v>106400.51751616</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3293,18 +3089,15 @@
         <v>8725.0735</v>
       </c>
       <c r="G77" t="n">
-        <v>106400.51751616</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3326,18 +3119,15 @@
         <v>143.0924</v>
       </c>
       <c r="G78" t="n">
-        <v>106400.51751616</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3359,18 +3149,15 @@
         <v>20.0822</v>
       </c>
       <c r="G79" t="n">
-        <v>106400.51751616</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3392,18 +3179,15 @@
         <v>8132.933</v>
       </c>
       <c r="G80" t="n">
-        <v>98267.58451616</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3425,18 +3209,15 @@
         <v>448.2611</v>
       </c>
       <c r="G81" t="n">
-        <v>97819.32341616</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3458,18 +3239,15 @@
         <v>2473</v>
       </c>
       <c r="G82" t="n">
-        <v>97819.32341616</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3491,18 +3269,15 @@
         <v>4281.079</v>
       </c>
       <c r="G83" t="n">
-        <v>102100.40241616</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3524,18 +3299,15 @@
         <v>3839.4673</v>
       </c>
       <c r="G84" t="n">
-        <v>102100.40241616</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3557,18 +3329,15 @@
         <v>6585.6952</v>
       </c>
       <c r="G85" t="n">
-        <v>108686.09761616</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3590,18 +3359,15 @@
         <v>5393.0697</v>
       </c>
       <c r="G86" t="n">
-        <v>114079.16731616</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3623,18 +3389,15 @@
         <v>1660.4349</v>
       </c>
       <c r="G87" t="n">
-        <v>115739.60221616</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3656,18 +3419,15 @@
         <v>968.3412</v>
       </c>
       <c r="G88" t="n">
-        <v>115739.60221616</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3689,18 +3449,15 @@
         <v>1262.4563</v>
       </c>
       <c r="G89" t="n">
-        <v>114477.14591616</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3722,18 +3479,15 @@
         <v>1556.5654</v>
       </c>
       <c r="G90" t="n">
-        <v>114477.14591616</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3755,18 +3509,15 @@
         <v>46.4242</v>
       </c>
       <c r="G91" t="n">
-        <v>114523.57011616</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3788,18 +3539,15 @@
         <v>1850.4002</v>
       </c>
       <c r="G92" t="n">
-        <v>114523.57011616</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3821,18 +3569,15 @@
         <v>150</v>
       </c>
       <c r="G93" t="n">
-        <v>114523.57011616</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3854,18 +3599,15 @@
         <v>2659.8291</v>
       </c>
       <c r="G94" t="n">
-        <v>111863.74101616</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3887,18 +3629,15 @@
         <v>450</v>
       </c>
       <c r="G95" t="n">
-        <v>112313.74101616</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3920,18 +3659,15 @@
         <v>926.6473</v>
       </c>
       <c r="G96" t="n">
-        <v>111387.09371616</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3953,18 +3689,15 @@
         <v>1387.6604</v>
       </c>
       <c r="G97" t="n">
-        <v>109999.43331616</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3986,18 +3719,15 @@
         <v>764.2395</v>
       </c>
       <c r="G98" t="n">
-        <v>109235.19381616</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4019,18 +3749,15 @@
         <v>3400.205</v>
       </c>
       <c r="G99" t="n">
-        <v>105834.98881616</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4052,18 +3779,15 @@
         <v>400</v>
       </c>
       <c r="G100" t="n">
-        <v>106234.98881616</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4085,18 +3809,15 @@
         <v>806.0166</v>
       </c>
       <c r="G101" t="n">
-        <v>105428.97221616</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4118,18 +3839,15 @@
         <v>2300.8084</v>
       </c>
       <c r="G102" t="n">
-        <v>103128.16381616</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4151,18 +3869,15 @@
         <v>4982.22</v>
       </c>
       <c r="G103" t="n">
-        <v>98145.94381615998</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4184,18 +3899,15 @@
         <v>1349.0481</v>
       </c>
       <c r="G104" t="n">
-        <v>96796.89571615998</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4217,18 +3929,15 @@
         <v>2152.9472</v>
       </c>
       <c r="G105" t="n">
-        <v>98949.84291615998</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4250,18 +3959,15 @@
         <v>278</v>
       </c>
       <c r="G106" t="n">
-        <v>99227.84291615998</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4283,18 +3989,15 @@
         <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>99327.84291615998</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4316,18 +4019,15 @@
         <v>328.84</v>
       </c>
       <c r="G108" t="n">
-        <v>98999.00291615998</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4349,18 +4049,15 @@
         <v>105</v>
       </c>
       <c r="G109" t="n">
-        <v>99104.00291615998</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4382,18 +4079,15 @@
         <v>137.1833</v>
       </c>
       <c r="G110" t="n">
-        <v>98966.81961615998</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4415,18 +4109,15 @@
         <v>1069.2147</v>
       </c>
       <c r="G111" t="n">
-        <v>97897.60491615998</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4448,18 +4139,15 @@
         <v>441.0295</v>
       </c>
       <c r="G112" t="n">
-        <v>98338.63441615998</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4481,18 +4169,15 @@
         <v>1.3</v>
       </c>
       <c r="G113" t="n">
-        <v>98339.93441615999</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4514,18 +4199,15 @@
         <v>210.0979</v>
       </c>
       <c r="G114" t="n">
-        <v>98129.83651615999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4547,18 +4229,15 @@
         <v>245</v>
       </c>
       <c r="G115" t="n">
-        <v>97884.83651615999</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4580,18 +4259,15 @@
         <v>471.4823</v>
       </c>
       <c r="G116" t="n">
-        <v>98356.31881616</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4613,18 +4289,15 @@
         <v>912.107</v>
       </c>
       <c r="G117" t="n">
-        <v>99268.42581616</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4646,18 +4319,15 @@
         <v>302</v>
       </c>
       <c r="G118" t="n">
-        <v>99268.42581616</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4679,18 +4349,15 @@
         <v>2141.5595</v>
       </c>
       <c r="G119" t="n">
-        <v>97126.86631616</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4712,18 +4379,15 @@
         <v>5896.1834</v>
       </c>
       <c r="G120" t="n">
-        <v>103023.04971616</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4745,18 +4409,15 @@
         <v>645.7625</v>
       </c>
       <c r="G121" t="n">
-        <v>102377.28721616</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,18 +4439,15 @@
         <v>1316.2202</v>
       </c>
       <c r="G122" t="n">
-        <v>103693.50741616</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4811,18 +4469,15 @@
         <v>380</v>
       </c>
       <c r="G123" t="n">
-        <v>103693.50741616</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4844,18 +4499,15 @@
         <v>3898.1774</v>
       </c>
       <c r="G124" t="n">
-        <v>99795.33001615999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4877,18 +4529,15 @@
         <v>285</v>
       </c>
       <c r="G125" t="n">
-        <v>99795.33001615999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4910,18 +4559,15 @@
         <v>1483.0112</v>
       </c>
       <c r="G126" t="n">
-        <v>98312.31881616</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4943,18 +4589,15 @@
         <v>121</v>
       </c>
       <c r="G127" t="n">
-        <v>98191.31881616</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4976,18 +4619,15 @@
         <v>500</v>
       </c>
       <c r="G128" t="n">
-        <v>98691.31881616</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5009,18 +4649,15 @@
         <v>754.8053</v>
       </c>
       <c r="G129" t="n">
-        <v>97936.51351615999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5042,18 +4679,15 @@
         <v>700</v>
       </c>
       <c r="G130" t="n">
-        <v>98636.51351615999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5075,18 +4709,15 @@
         <v>102.4</v>
       </c>
       <c r="G131" t="n">
-        <v>98534.11351616</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5108,18 +4739,15 @@
         <v>50</v>
       </c>
       <c r="G132" t="n">
-        <v>98534.11351616</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5141,18 +4769,15 @@
         <v>617.2584000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>97916.85511615999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5174,18 +4799,15 @@
         <v>468.6316</v>
       </c>
       <c r="G134" t="n">
-        <v>97916.85511615999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5207,18 +4829,15 @@
         <v>1.7</v>
       </c>
       <c r="G135" t="n">
-        <v>97915.15511615999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5240,18 +4859,15 @@
         <v>920.1909000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>97915.15511615999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5273,18 +4889,15 @@
         <v>169</v>
       </c>
       <c r="G137" t="n">
-        <v>98084.15511615999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5306,18 +4919,15 @@
         <v>11150.299</v>
       </c>
       <c r="G138" t="n">
-        <v>109234.45411616</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5339,18 +4949,15 @@
         <v>2.6</v>
       </c>
       <c r="G139" t="n">
-        <v>109231.85411616</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5372,18 +4979,15 @@
         <v>2.8</v>
       </c>
       <c r="G140" t="n">
-        <v>109229.05411616</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5405,18 +5009,15 @@
         <v>310.1815</v>
       </c>
       <c r="G141" t="n">
-        <v>109539.23561616</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5438,18 +5039,15 @@
         <v>2007</v>
       </c>
       <c r="G142" t="n">
-        <v>107532.23561616</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5471,18 +5069,15 @@
         <v>634</v>
       </c>
       <c r="G143" t="n">
-        <v>107532.23561616</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5504,18 +5099,15 @@
         <v>112.6497</v>
       </c>
       <c r="G144" t="n">
-        <v>107419.58591616</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5537,18 +5129,15 @@
         <v>250</v>
       </c>
       <c r="G145" t="n">
-        <v>107419.58591616</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5570,18 +5159,15 @@
         <v>250</v>
       </c>
       <c r="G146" t="n">
-        <v>107669.58591616</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5603,18 +5189,15 @@
         <v>400</v>
       </c>
       <c r="G147" t="n">
-        <v>107269.58591616</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5636,18 +5219,15 @@
         <v>1941.8267</v>
       </c>
       <c r="G148" t="n">
-        <v>107269.58591616</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5669,18 +5249,15 @@
         <v>568.1395</v>
       </c>
       <c r="G149" t="n">
-        <v>106701.44641616</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5702,18 +5279,15 @@
         <v>308</v>
       </c>
       <c r="G150" t="n">
-        <v>106701.44641616</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5735,18 +5309,15 @@
         <v>2659.2799</v>
       </c>
       <c r="G151" t="n">
-        <v>109360.72631616</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5768,18 +5339,15 @@
         <v>5668.2727</v>
       </c>
       <c r="G152" t="n">
-        <v>115028.99901616</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5801,18 +5369,15 @@
         <v>2352.9102</v>
       </c>
       <c r="G153" t="n">
-        <v>117381.90921616</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5834,18 +5399,15 @@
         <v>2.5</v>
       </c>
       <c r="G154" t="n">
-        <v>117379.40921616</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5867,18 +5429,15 @@
         <v>577.9847</v>
       </c>
       <c r="G155" t="n">
-        <v>117379.40921616</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5900,18 +5459,15 @@
         <v>6796.5837</v>
       </c>
       <c r="G156" t="n">
-        <v>124175.99291616</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5933,18 +5489,15 @@
         <v>1.5599</v>
       </c>
       <c r="G157" t="n">
-        <v>124174.43301616</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5966,18 +5519,15 @@
         <v>2657.9979</v>
       </c>
       <c r="G158" t="n">
-        <v>121516.43511616</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5999,18 +5549,15 @@
         <v>231.0114</v>
       </c>
       <c r="G159" t="n">
-        <v>121516.43511616</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6032,18 +5579,15 @@
         <v>1443.701</v>
       </c>
       <c r="G160" t="n">
-        <v>121516.43511616</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6065,18 +5609,15 @@
         <v>2059.9999</v>
       </c>
       <c r="G161" t="n">
-        <v>121516.43511616</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6098,18 +5639,15 @@
         <v>0.0001</v>
       </c>
       <c r="G162" t="n">
-        <v>121516.43521616</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6131,18 +5669,15 @@
         <v>1.2</v>
       </c>
       <c r="G163" t="n">
-        <v>121517.63521616</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6164,18 +5699,15 @@
         <v>11.2</v>
       </c>
       <c r="G164" t="n">
-        <v>121506.43521616</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6197,18 +5729,15 @@
         <v>63.9331</v>
       </c>
       <c r="G165" t="n">
-        <v>121570.36831616</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6230,18 +5759,15 @@
         <v>1746.4</v>
       </c>
       <c r="G166" t="n">
-        <v>119823.96831616</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6263,18 +5789,15 @@
         <v>1834.6335</v>
       </c>
       <c r="G167" t="n">
-        <v>121658.60181616</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6296,18 +5819,15 @@
         <v>413.393</v>
       </c>
       <c r="G168" t="n">
-        <v>121245.20881616</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6329,18 +5849,15 @@
         <v>5033.4845</v>
       </c>
       <c r="G169" t="n">
-        <v>126278.69331616</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6362,18 +5879,15 @@
         <v>2486.995</v>
       </c>
       <c r="G170" t="n">
-        <v>123791.69831616</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6395,18 +5909,15 @@
         <v>50</v>
       </c>
       <c r="G171" t="n">
-        <v>123841.69831616</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6428,18 +5939,15 @@
         <v>105</v>
       </c>
       <c r="G172" t="n">
-        <v>123736.69831616</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6461,18 +5969,15 @@
         <v>226.3967</v>
       </c>
       <c r="G173" t="n">
-        <v>123510.30161616</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6494,18 +5999,15 @@
         <v>48</v>
       </c>
       <c r="G174" t="n">
-        <v>123558.30161616</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6527,18 +6029,15 @@
         <v>403.451</v>
       </c>
       <c r="G175" t="n">
-        <v>123961.75261616</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6560,18 +6059,15 @@
         <v>3248.2086</v>
       </c>
       <c r="G176" t="n">
-        <v>120713.54401616</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6593,18 +6089,15 @@
         <v>1518.045</v>
       </c>
       <c r="G177" t="n">
-        <v>119195.49901616</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6626,18 +6119,15 @@
         <v>410.8464</v>
       </c>
       <c r="G178" t="n">
-        <v>118784.65261616</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6659,18 +6149,15 @@
         <v>3131.4715</v>
       </c>
       <c r="G179" t="n">
-        <v>118784.65261616</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6692,18 +6179,15 @@
         <v>327.9791</v>
       </c>
       <c r="G180" t="n">
-        <v>118456.67351616</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6725,18 +6209,15 @@
         <v>333.9261</v>
       </c>
       <c r="G181" t="n">
-        <v>118790.59961616</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6758,18 +6239,15 @@
         <v>193.6636</v>
       </c>
       <c r="G182" t="n">
-        <v>118596.93601616</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6791,18 +6269,15 @@
         <v>215</v>
       </c>
       <c r="G183" t="n">
-        <v>118811.93601616</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6824,18 +6299,15 @@
         <v>150</v>
       </c>
       <c r="G184" t="n">
-        <v>118961.93601616</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6857,18 +6329,15 @@
         <v>215</v>
       </c>
       <c r="G185" t="n">
-        <v>118746.93601616</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6890,18 +6359,15 @@
         <v>376.6494</v>
       </c>
       <c r="G186" t="n">
-        <v>118370.28661616</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6923,18 +6389,15 @@
         <v>529.2174</v>
       </c>
       <c r="G187" t="n">
-        <v>118370.28661616</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6956,18 +6419,15 @@
         <v>749.1981</v>
       </c>
       <c r="G188" t="n">
-        <v>118370.28661616</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6989,18 +6449,15 @@
         <v>182.1951</v>
       </c>
       <c r="G189" t="n">
-        <v>118188.09151616</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7022,18 +6479,15 @@
         <v>3327.6073</v>
       </c>
       <c r="G190" t="n">
-        <v>114860.48421616</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7055,18 +6509,15 @@
         <v>3552</v>
       </c>
       <c r="G191" t="n">
-        <v>118412.48421616</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7088,18 +6539,15 @@
         <v>1.563</v>
       </c>
       <c r="G192" t="n">
-        <v>118412.48421616</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7121,18 +6569,15 @@
         <v>539.5001</v>
       </c>
       <c r="G193" t="n">
-        <v>117872.98411616</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7154,18 +6599,15 @@
         <v>7974.0084</v>
       </c>
       <c r="G194" t="n">
-        <v>109898.97571616</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7187,18 +6629,15 @@
         <v>134</v>
       </c>
       <c r="G195" t="n">
-        <v>110032.97571616</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7220,18 +6659,15 @@
         <v>562.6526</v>
       </c>
       <c r="G196" t="n">
-        <v>109470.32311616</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7253,18 +6689,15 @@
         <v>1995.6384</v>
       </c>
       <c r="G197" t="n">
-        <v>111465.96151616</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7286,18 +6719,15 @@
         <v>83.4461</v>
       </c>
       <c r="G198" t="n">
-        <v>111549.40761616</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7319,18 +6749,15 @@
         <v>0.6686</v>
       </c>
       <c r="G199" t="n">
-        <v>111549.40761616</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7352,18 +6779,15 @@
         <v>662.831</v>
       </c>
       <c r="G200" t="n">
-        <v>112212.23861616</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7385,18 +6809,15 @@
         <v>3545.19</v>
       </c>
       <c r="G201" t="n">
-        <v>108667.04861616</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7418,18 +6839,15 @@
         <v>233.7497</v>
       </c>
       <c r="G202" t="n">
-        <v>108900.79831616</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7451,18 +6869,15 @@
         <v>1965.8417</v>
       </c>
       <c r="G203" t="n">
-        <v>106934.95661616</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7484,18 +6899,15 @@
         <v>1043.7</v>
       </c>
       <c r="G204" t="n">
-        <v>107978.65661616</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7517,18 +6929,15 @@
         <v>114.8</v>
       </c>
       <c r="G205" t="n">
-        <v>107978.65661616</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7550,18 +6959,15 @@
         <v>114.8</v>
       </c>
       <c r="G206" t="n">
-        <v>107978.65661616</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7583,18 +6989,15 @@
         <v>200</v>
       </c>
       <c r="G207" t="n">
-        <v>108178.65661616</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7616,18 +7019,15 @@
         <v>1017.2026</v>
       </c>
       <c r="G208" t="n">
-        <v>107161.45401616</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7649,18 +7049,15 @@
         <v>1038.1202</v>
       </c>
       <c r="G209" t="n">
-        <v>108199.57421616</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7682,18 +7079,15 @@
         <v>700</v>
       </c>
       <c r="G210" t="n">
-        <v>107499.57421616</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7715,18 +7109,15 @@
         <v>1068.1887</v>
       </c>
       <c r="G211" t="n">
-        <v>106431.38551616</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7748,18 +7139,15 @@
         <v>3490.2992</v>
       </c>
       <c r="G212" t="n">
-        <v>109921.68471616</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7781,18 +7169,15 @@
         <v>627.4415</v>
       </c>
       <c r="G213" t="n">
-        <v>109294.24321616</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7814,18 +7199,15 @@
         <v>1032.5659</v>
       </c>
       <c r="G214" t="n">
-        <v>110326.80911616</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7847,18 +7229,15 @@
         <v>1173.6745</v>
       </c>
       <c r="G215" t="n">
-        <v>109153.13461616</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7880,18 +7259,15 @@
         <v>430.7626</v>
       </c>
       <c r="G216" t="n">
-        <v>109583.89721616</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7913,18 +7289,15 @@
         <v>83.2837</v>
       </c>
       <c r="G217" t="n">
-        <v>109667.18091616</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7946,18 +7319,15 @@
         <v>377.4415</v>
       </c>
       <c r="G218" t="n">
-        <v>110044.62241616</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7979,18 +7349,15 @@
         <v>278</v>
       </c>
       <c r="G219" t="n">
-        <v>110044.62241616</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8012,18 +7379,15 @@
         <v>43.6198</v>
       </c>
       <c r="G220" t="n">
-        <v>110044.62241616</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8045,18 +7409,15 @@
         <v>253.3542</v>
       </c>
       <c r="G221" t="n">
-        <v>110044.62241616</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8078,18 +7439,15 @@
         <v>390.3868</v>
       </c>
       <c r="G222" t="n">
-        <v>110044.62241616</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8111,18 +7469,15 @@
         <v>159.7973</v>
       </c>
       <c r="G223" t="n">
-        <v>109884.82511616</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8144,18 +7499,15 @@
         <v>123.0167</v>
       </c>
       <c r="G224" t="n">
-        <v>110007.84181616</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8177,18 +7529,15 @@
         <v>97.59999999999999</v>
       </c>
       <c r="G225" t="n">
-        <v>110007.84181616</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8210,18 +7559,15 @@
         <v>105</v>
       </c>
       <c r="G226" t="n">
-        <v>110007.84181616</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8243,18 +7589,15 @@
         <v>105</v>
       </c>
       <c r="G227" t="n">
-        <v>110007.84181616</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8276,18 +7619,15 @@
         <v>91.86</v>
       </c>
       <c r="G228" t="n">
-        <v>110007.84181616</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8309,18 +7649,15 @@
         <v>3169.3166</v>
       </c>
       <c r="G229" t="n">
-        <v>106838.52521616</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8342,18 +7679,15 @@
         <v>153.0459</v>
       </c>
       <c r="G230" t="n">
-        <v>106991.57111616</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8375,18 +7709,15 @@
         <v>805.0928</v>
       </c>
       <c r="G231" t="n">
-        <v>106991.57111616</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8408,18 +7739,15 @@
         <v>3</v>
       </c>
       <c r="G232" t="n">
-        <v>106991.57111616</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8441,18 +7769,15 @@
         <v>656.2098</v>
       </c>
       <c r="G233" t="n">
-        <v>106991.57111616</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8474,18 +7799,15 @@
         <v>1680.1877</v>
       </c>
       <c r="G234" t="n">
-        <v>105311.38341616</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8507,18 +7829,15 @@
         <v>401.5</v>
       </c>
       <c r="G235" t="n">
-        <v>105712.88341616</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8540,18 +7859,15 @@
         <v>777.4432</v>
       </c>
       <c r="G236" t="n">
-        <v>106490.32661616</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8573,18 +7889,15 @@
         <v>434.8492</v>
       </c>
       <c r="G237" t="n">
-        <v>106055.47741616</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8606,18 +7919,15 @@
         <v>210.7459</v>
       </c>
       <c r="G238" t="n">
-        <v>105844.73151616</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8639,18 +7949,15 @@
         <v>350</v>
       </c>
       <c r="G239" t="n">
-        <v>105494.73151616</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8672,18 +7979,15 @@
         <v>100</v>
       </c>
       <c r="G240" t="n">
-        <v>105494.73151616</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8705,18 +8009,15 @@
         <v>741.1939</v>
       </c>
       <c r="G241" t="n">
-        <v>106235.92541616</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8738,18 +8039,15 @@
         <v>715.3287</v>
       </c>
       <c r="G242" t="n">
-        <v>106235.92541616</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8771,18 +8069,15 @@
         <v>1936.4582</v>
       </c>
       <c r="G243" t="n">
-        <v>104299.46721616</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8804,18 +8099,15 @@
         <v>871.948</v>
       </c>
       <c r="G244" t="n">
-        <v>105171.41521616</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8837,18 +8129,15 @@
         <v>2.6</v>
       </c>
       <c r="G245" t="n">
-        <v>105168.81521616</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8870,18 +8159,15 @@
         <v>532.2</v>
       </c>
       <c r="G246" t="n">
-        <v>105701.01521616</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8903,18 +8189,15 @@
         <v>1.3</v>
       </c>
       <c r="G247" t="n">
-        <v>105702.31521616</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8936,18 +8219,15 @@
         <v>1.3</v>
       </c>
       <c r="G248" t="n">
-        <v>105703.61521616</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8969,18 +8249,15 @@
         <v>216.1288</v>
       </c>
       <c r="G249" t="n">
-        <v>105487.48641616</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9002,18 +8279,15 @@
         <v>1.3</v>
       </c>
       <c r="G250" t="n">
-        <v>105488.78641616</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9035,18 +8309,15 @@
         <v>223.9973</v>
       </c>
       <c r="G251" t="n">
-        <v>105264.78911616</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9068,18 +8339,15 @@
         <v>2044.0856</v>
       </c>
       <c r="G252" t="n">
-        <v>103220.70351616</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9101,18 +8369,15 @@
         <v>1.3</v>
       </c>
       <c r="G253" t="n">
-        <v>103222.00351616</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9134,18 +8399,15 @@
         <v>6.9705</v>
       </c>
       <c r="G254" t="n">
-        <v>103222.00351616</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9167,18 +8429,15 @@
         <v>1.3</v>
       </c>
       <c r="G255" t="n">
-        <v>103222.00351616</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9200,18 +8459,15 @@
         <v>6.5363</v>
       </c>
       <c r="G256" t="n">
-        <v>103215.46721616</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9233,18 +8489,15 @@
         <v>362</v>
       </c>
       <c r="G257" t="n">
-        <v>103577.46721616</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9266,18 +8519,15 @@
         <v>119.4697</v>
       </c>
       <c r="G258" t="n">
-        <v>103457.99751616</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9299,18 +8549,15 @@
         <v>472</v>
       </c>
       <c r="G259" t="n">
-        <v>103457.99751616</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9332,18 +8579,15 @@
         <v>527.1581</v>
       </c>
       <c r="G260" t="n">
-        <v>103985.15561616</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9365,18 +8609,15 @@
         <v>1788.77548305</v>
       </c>
       <c r="G261" t="n">
-        <v>105773.93109921</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9398,18 +8639,15 @@
         <v>1741</v>
       </c>
       <c r="G262" t="n">
-        <v>104032.93109921</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9431,18 +8669,15 @@
         <v>217.9153</v>
       </c>
       <c r="G263" t="n">
-        <v>104250.84639921</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9464,18 +8699,15 @@
         <v>94.1999</v>
       </c>
       <c r="G264" t="n">
-        <v>104156.64649921</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9497,18 +8729,15 @@
         <v>205.0615</v>
       </c>
       <c r="G265" t="n">
-        <v>104361.70799921</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9530,18 +8759,15 @@
         <v>1906.8971</v>
       </c>
       <c r="G266" t="n">
-        <v>106268.60509921</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9563,18 +8789,15 @@
         <v>3839.6759</v>
       </c>
       <c r="G267" t="n">
-        <v>102428.92919921</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9596,18 +8819,15 @@
         <v>1151.9027</v>
       </c>
       <c r="G268" t="n">
-        <v>103580.83189921</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9629,18 +8849,15 @@
         <v>424.3794</v>
       </c>
       <c r="G269" t="n">
-        <v>104005.21129921</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9662,18 +8879,15 @@
         <v>169</v>
       </c>
       <c r="G270" t="n">
-        <v>104174.21129921</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9695,18 +8909,15 @@
         <v>906</v>
       </c>
       <c r="G271" t="n">
-        <v>103268.21129921</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9728,18 +8939,15 @@
         <v>219.0999</v>
       </c>
       <c r="G272" t="n">
-        <v>103268.21129921</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9761,18 +8969,15 @@
         <v>1036.7125</v>
       </c>
       <c r="G273" t="n">
-        <v>102231.49879921</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9794,18 +8999,15 @@
         <v>2382.6031</v>
       </c>
       <c r="G274" t="n">
-        <v>104614.10189921</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9827,18 +9029,15 @@
         <v>700.6</v>
       </c>
       <c r="G275" t="n">
-        <v>103913.50189921</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9860,18 +9059,15 @@
         <v>4373.6309</v>
       </c>
       <c r="G276" t="n">
-        <v>99539.87099920998</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9893,18 +9089,15 @@
         <v>2739.0786</v>
       </c>
       <c r="G277" t="n">
-        <v>102278.94959921</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9926,18 +9119,15 @@
         <v>1486.9004</v>
       </c>
       <c r="G278" t="n">
-        <v>100792.04919921</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9959,18 +9149,15 @@
         <v>909.3659</v>
       </c>
       <c r="G279" t="n">
-        <v>101701.41509921</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9992,18 +9179,15 @@
         <v>79</v>
       </c>
       <c r="G280" t="n">
-        <v>101622.41509921</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10025,18 +9209,15 @@
         <v>158.0474</v>
       </c>
       <c r="G281" t="n">
-        <v>101780.46249921</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10058,18 +9239,15 @@
         <v>2461.0402</v>
       </c>
       <c r="G282" t="n">
-        <v>104241.50269921</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10091,18 +9269,15 @@
         <v>100.03</v>
       </c>
       <c r="G283" t="n">
-        <v>104341.53269921</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10124,18 +9299,15 @@
         <v>319.2111</v>
       </c>
       <c r="G284" t="n">
-        <v>104341.53269921</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10157,18 +9329,15 @@
         <v>271.3227</v>
       </c>
       <c r="G285" t="n">
-        <v>104341.53269921</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10190,18 +9359,15 @@
         <v>381.664</v>
       </c>
       <c r="G286" t="n">
-        <v>104723.19669921</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10223,18 +9389,15 @@
         <v>463.0122</v>
       </c>
       <c r="G287" t="n">
-        <v>104260.18449921</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10256,18 +9419,15 @@
         <v>386.1158</v>
       </c>
       <c r="G288" t="n">
-        <v>104646.30029921</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10289,18 +9449,15 @@
         <v>41.2284</v>
       </c>
       <c r="G289" t="n">
-        <v>104605.07189921</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10322,18 +9479,15 @@
         <v>226.802</v>
       </c>
       <c r="G290" t="n">
-        <v>104605.07189921</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10355,18 +9509,15 @@
         <v>134</v>
       </c>
       <c r="G291" t="n">
-        <v>104605.07189921</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10388,18 +9539,15 @@
         <v>37</v>
       </c>
       <c r="G292" t="n">
-        <v>104642.07189921</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10421,18 +9569,15 @@
         <v>302.8081</v>
       </c>
       <c r="G293" t="n">
-        <v>104339.26379921</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10454,18 +9599,15 @@
         <v>2179.6263</v>
       </c>
       <c r="G294" t="n">
-        <v>106518.89009921</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10487,18 +9629,15 @@
         <v>2797.0999</v>
       </c>
       <c r="G295" t="n">
-        <v>109315.98999921</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10520,18 +9659,15 @@
         <v>794</v>
       </c>
       <c r="G296" t="n">
-        <v>109315.98999921</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10553,18 +9689,15 @@
         <v>92.9999</v>
       </c>
       <c r="G297" t="n">
-        <v>109315.98999921</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10586,18 +9719,15 @@
         <v>1847.1741</v>
       </c>
       <c r="G298" t="n">
-        <v>111163.16409921</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10619,18 +9749,15 @@
         <v>2986.893</v>
       </c>
       <c r="G299" t="n">
-        <v>108176.27109921</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10652,18 +9779,15 @@
         <v>837.4303</v>
       </c>
       <c r="G300" t="n">
-        <v>107338.84079921</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10685,18 +9809,15 @@
         <v>146</v>
       </c>
       <c r="G301" t="n">
-        <v>107484.84079921</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10718,18 +9839,15 @@
         <v>402</v>
       </c>
       <c r="G302" t="n">
-        <v>107886.84079921</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10751,18 +9869,15 @@
         <v>610</v>
       </c>
       <c r="G303" t="n">
-        <v>108496.84079921</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10784,18 +9899,15 @@
         <v>309.5979</v>
       </c>
       <c r="G304" t="n">
-        <v>108187.24289921</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10817,18 +9929,15 @@
         <v>314.1571</v>
       </c>
       <c r="G305" t="n">
-        <v>108501.39999921</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10850,18 +9959,15 @@
         <v>1020.2473</v>
       </c>
       <c r="G306" t="n">
-        <v>107481.15269921</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10883,18 +9989,15 @@
         <v>68.49469999999999</v>
       </c>
       <c r="G307" t="n">
-        <v>107412.65799921</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10916,18 +10019,15 @@
         <v>75.9053</v>
       </c>
       <c r="G308" t="n">
-        <v>107412.65799921</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10949,18 +10049,15 @@
         <v>465.0947</v>
       </c>
       <c r="G309" t="n">
-        <v>106947.56329921</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10982,18 +10079,15 @@
         <v>1106.89</v>
       </c>
       <c r="G310" t="n">
-        <v>106947.56329921</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11015,18 +10109,15 @@
         <v>4.3</v>
       </c>
       <c r="G311" t="n">
-        <v>106951.86329921</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11048,18 +10139,15 @@
         <v>432.0863</v>
       </c>
       <c r="G312" t="n">
-        <v>106519.77699921</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11081,18 +10169,15 @@
         <v>1162.759</v>
       </c>
       <c r="G313" t="n">
-        <v>107682.53599921</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11114,18 +10199,15 @@
         <v>555</v>
       </c>
       <c r="G314" t="n">
-        <v>108237.53599921</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11147,18 +10229,15 @@
         <v>14</v>
       </c>
       <c r="G315" t="n">
-        <v>108251.53599921</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11180,18 +10259,15 @@
         <v>70.78319999999999</v>
       </c>
       <c r="G316" t="n">
-        <v>108180.75279921</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11213,18 +10289,15 @@
         <v>0.864</v>
       </c>
       <c r="G317" t="n">
-        <v>108181.61679921</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11246,18 +10319,15 @@
         <v>4.8</v>
       </c>
       <c r="G318" t="n">
-        <v>108176.81679921</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11279,18 +10349,15 @@
         <v>221.8267</v>
       </c>
       <c r="G319" t="n">
-        <v>108398.64349921</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11312,18 +10379,15 @@
         <v>77.9196</v>
       </c>
       <c r="G320" t="n">
-        <v>108320.72389921</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11345,18 +10409,15 @@
         <v>428.4455</v>
       </c>
       <c r="G321" t="n">
-        <v>107892.27839921</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11378,18 +10439,15 @@
         <v>176.5566</v>
       </c>
       <c r="G322" t="n">
-        <v>107715.72179921</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11411,18 +10469,15 @@
         <v>105</v>
       </c>
       <c r="G323" t="n">
-        <v>107715.72179921</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11444,18 +10499,15 @@
         <v>1420.0286</v>
       </c>
       <c r="G324" t="n">
-        <v>106295.69319921</v>
-      </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11477,18 +10529,15 @@
         <v>750.3</v>
       </c>
       <c r="G325" t="n">
-        <v>107045.99319921</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11510,18 +10559,15 @@
         <v>575.9219000000001</v>
       </c>
       <c r="G326" t="n">
-        <v>107045.99319921</v>
-      </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11543,18 +10589,15 @@
         <v>220.3424</v>
       </c>
       <c r="G327" t="n">
-        <v>106825.65079921</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11576,18 +10619,15 @@
         <v>0.0001</v>
       </c>
       <c r="G328" t="n">
-        <v>106825.65079921</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11609,18 +10649,15 @@
         <v>29.0596</v>
       </c>
       <c r="G329" t="n">
-        <v>106796.59119921</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11642,18 +10679,15 @@
         <v>15.544</v>
       </c>
       <c r="G330" t="n">
-        <v>106812.13519921</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11675,18 +10709,15 @@
         <v>1.3</v>
       </c>
       <c r="G331" t="n">
-        <v>106813.43519921</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11708,18 +10739,15 @@
         <v>215.8628</v>
       </c>
       <c r="G332" t="n">
-        <v>106597.57239921</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11741,18 +10769,15 @@
         <v>1714</v>
       </c>
       <c r="G333" t="n">
-        <v>104883.57239921</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
